--- a/medicine/Enfance/Bibliothèque_de_l'amitié/Bibliothèque_de_l'amitié.xlsx
+++ b/medicine/Enfance/Bibliothèque_de_l'amitié/Bibliothèque_de_l'amitié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_de_l%27amiti%C3%A9</t>
+          <t>Bibliothèque_de_l'amitié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Bibliothèque de l'amitié est une collection française de romans pour la jeunesse créée et publiée de 1959 à 1988 par les Éditions de l'amitié[1]. Destinée aux adolescents, 233[2] volumes ont ainsi paru[3]. La collection se spécialise d'abord dans les romans historiques, puis se tourne vers les titres contemporains. Elle privilégie les romans psychologiques, sociaux ou d'aventures centrés sur l'amitié
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bibliothèque de l'amitié est une collection française de romans pour la jeunesse créée et publiée de 1959 à 1988 par les Éditions de l'amitié. Destinée aux adolescents, 233 volumes ont ainsi paru. La collection se spécialise d'abord dans les romans historiques, puis se tourne vers les titres contemporains. Elle privilégie les romans psychologiques, sociaux ou d'aventures centrés sur l'amitié
 La collection se décline en plusieurs séries (Aventure, Découvertes, Nature, Policier, Vocation). En 1966, la série Histoire devient autonome avec une numérotation propre sous le nom de Bibliothèque de l'Amitié-Histoire.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_de_l%27amiti%C3%A9</t>
+          <t>Bibliothèque_de_l'amitié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aspect des livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les livres de cette collection se présentent sous la forme de solides et épais volumes cartonnés In-16 (20 cm), reliés et comptant environ 160 pages.
 De 1959 jusqu'au début des années 1980, la couverture sera toujours illustrée d'une photographie représentant personnages et lieux réels. Cette photographie sera ensuite remplacée par un dessin.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_de_l%27amiti%C3%A9</t>
+          <t>Bibliothèque_de_l'amitié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,48 @@
           <t>Titres publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste exhaustive par ordre alphabétique des noms des auteurs, établie selon la Bibliothèque nationale de France.
-Bibliothèque de l'amitié
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bibliothèque_de_l'amitié</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_de_l%27amiti%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Titres publiés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bibliothèque de l'amitié</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jean Alessandrini, Le Prince d'Aéropolis (1986)
 Claude Appell, Un ami en danger (1965)
 William H. Armstrong, Un jour, un enfant noir (1979)
@@ -657,7 +709,7 @@
 L. N. Lavolle,  Le Lis de la mousson (1965), no 42.
 L. N. Lavolle, L'Île née de la mer (1967)
 L. N. Lavolle, L'Affaire de la Bella (1968)
-L. N. Lavolle, Le Boléro d'or (1971), no 76[4].
+L. N. Lavolle, Le Boléro d'or (1971), no 76.
 L. N. Lavolle, Énigme à Madère (1974)
 Olivier Lécrivain, Les Voleurs de secrets (1985)
 Jacques Le Maître, Les Inconnus de Belleville (1972)
@@ -748,7 +800,43 @@
 E. Wustmann, Le Berger des Andes (1961)
 Jane Yolen, Les Enfants du loup (1984)
 Stephanie Zweig, Souvenirs d'enfance au Kenya (1986)
-Bibliothèque de l'Amitié-Histoire
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibliothèque_de_l'amitié</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_de_l%27amiti%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Titres publiés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bibliothèque de l'Amitié-Histoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Giuliana Boldrini, Le Secret des étrusques (Il secreto etrusco), 1968
 Jean Christophe, La Gueule du lion, 1971, no 20
 Stefan Ditchev, Les Maquisards des monts Balkan, 1971, no 21
@@ -777,7 +865,7 @@
 Nicole Vidal, Le Prince des steppes, 1967, no 5
 Nicole Vidal, Les Jours dorés de K'Ai-Yuan, 1970
 Nicole Vidal, La Conspiration des parasols, 1972
-Sans auteur[5], Les Aventures de Sindbad le marin, 1966
+Sans auteur, Les Aventures de Sindbad le marin, 1966
 </t>
         </is>
       </c>
